--- a/orderreport.xlsx
+++ b/orderreport.xlsx
@@ -6602,7 +6602,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sdfds</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
